--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Bmpr1a.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp10</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp10</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H2">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N2">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q2">
-        <v>1.591954208884667</v>
+        <v>2.491738145760666</v>
       </c>
       <c r="R2">
-        <v>9.551725253308</v>
+        <v>14.950428874564</v>
       </c>
       <c r="S2">
-        <v>0.04123934478936016</v>
+        <v>0.05190752325169092</v>
       </c>
       <c r="T2">
-        <v>0.03303567645465839</v>
+        <v>0.04053296113416156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H3">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q3">
-        <v>8.862221802232556</v>
+        <v>8.887172726936443</v>
       </c>
       <c r="R3">
-        <v>79.75999622009302</v>
+        <v>79.984554542428</v>
       </c>
       <c r="S3">
-        <v>0.2295745810164385</v>
+        <v>0.1851362775619506</v>
       </c>
       <c r="T3">
-        <v>0.2758585867238202</v>
+        <v>0.2168506915622518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H4">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N4">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q4">
-        <v>0.0525639323268889</v>
+        <v>0.5850289408902222</v>
       </c>
       <c r="R4">
-        <v>0.473075390942</v>
+        <v>5.265260468011999</v>
       </c>
       <c r="S4">
-        <v>0.001361661105963514</v>
+        <v>0.01218723701117514</v>
       </c>
       <c r="T4">
-        <v>0.001636182484248953</v>
+        <v>0.01427494821063397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H5">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N5">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q5">
-        <v>9.589532413300001</v>
+        <v>9.245018430285334</v>
       </c>
       <c r="R5">
-        <v>57.5371944798</v>
+        <v>55.470110581712</v>
       </c>
       <c r="S5">
-        <v>0.2484154577774507</v>
+        <v>0.1925908667204072</v>
       </c>
       <c r="T5">
-        <v>0.198998619677125</v>
+        <v>0.1503881831872697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H6">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N6">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q6">
-        <v>1.725384554939889</v>
+        <v>5.144684190673778</v>
       </c>
       <c r="R6">
-        <v>15.528460994459</v>
+        <v>46.302157716064</v>
       </c>
       <c r="S6">
-        <v>0.04469583871087195</v>
+        <v>0.1071733057923238</v>
       </c>
       <c r="T6">
-        <v>0.05370686442996966</v>
+        <v>0.1255324228407979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H7">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N7">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q7">
-        <v>0.3927059834102222</v>
+        <v>0.3967996009395555</v>
       </c>
       <c r="R7">
-        <v>3.534353850692</v>
+        <v>3.571196408456</v>
       </c>
       <c r="S7">
-        <v>0.01017299201215416</v>
+        <v>0.008266071034420003</v>
       </c>
       <c r="T7">
-        <v>0.01222394564241681</v>
+        <v>0.009682074436852959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H8">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I8">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J8">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N8">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O8">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P8">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q8">
-        <v>1.174449283182</v>
+        <v>1.979661947972833</v>
       </c>
       <c r="R8">
-        <v>7.046695699092</v>
+        <v>11.877971687837</v>
       </c>
       <c r="S8">
-        <v>0.03042393974427959</v>
+        <v>0.04124002707496283</v>
       </c>
       <c r="T8">
-        <v>0.02437176039051315</v>
+        <v>0.03220304707076901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H9">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I9">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J9">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P9">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q9">
-        <v>6.538020996423</v>
+        <v>7.060773100299889</v>
       </c>
       <c r="R9">
-        <v>58.842188967807</v>
+        <v>63.54695790269901</v>
       </c>
       <c r="S9">
-        <v>0.1693664934624371</v>
+        <v>0.1470889886653176</v>
       </c>
       <c r="T9">
-        <v>0.2035120844740717</v>
+        <v>0.1722857850082523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H10">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I10">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J10">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N10">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O10">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P10">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q10">
-        <v>0.038778547962</v>
+        <v>0.4647998565634444</v>
       </c>
       <c r="R10">
-        <v>0.349006931658</v>
+        <v>4.183198709071</v>
       </c>
       <c r="S10">
-        <v>0.001004552706924949</v>
+        <v>0.009682642376767216</v>
       </c>
       <c r="T10">
-        <v>0.00120707827841821</v>
+        <v>0.01134130880885479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H11">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I11">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J11">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N11">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O11">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P11">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q11">
-        <v>7.074587576699999</v>
+        <v>7.345078063632667</v>
       </c>
       <c r="R11">
-        <v>42.4475254602</v>
+        <v>44.070468381796</v>
       </c>
       <c r="S11">
-        <v>0.1832661735430557</v>
+        <v>0.1530115879239417</v>
       </c>
       <c r="T11">
-        <v>0.1468093648232183</v>
+        <v>0.1194819624955895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H12">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I12">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J12">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N12">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O12">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P12">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q12">
-        <v>1.272886269249</v>
+        <v>4.087402018523556</v>
       </c>
       <c r="R12">
-        <v>11.455976423241</v>
+        <v>36.786618166712</v>
       </c>
       <c r="S12">
-        <v>0.03297393570885356</v>
+        <v>0.08514815879689899</v>
       </c>
       <c r="T12">
-        <v>0.03962173539898622</v>
+        <v>0.09973430039491518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H13">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I13">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J13">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N13">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O13">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P13">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q13">
-        <v>0.289715155212</v>
+        <v>0.3152534596331111</v>
       </c>
       <c r="R13">
-        <v>2.607436396908</v>
+        <v>2.837281136698</v>
       </c>
       <c r="S13">
-        <v>0.007505029422210121</v>
+        <v>0.006567313790143941</v>
       </c>
       <c r="T13">
-        <v>0.009018101222553594</v>
+        <v>0.007692314849651673</v>
       </c>
     </row>
   </sheetData>
